--- a/Documentation/Game page.xlsx
+++ b/Documentation/Game page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Game_RPG_HTML\Game_RPG_Adventure\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16C6DB29-836E-4463-BE82-C453174429DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9858A12D-94DB-4EA5-AA68-1860AD50D3FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17025" windowHeight="10095" xr2:uid="{1D224F2D-E0F6-41A4-9C1F-CB8BAD0A9640}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,18 +182,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF009F9F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -274,31 +281,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -613,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEDB6C1-5997-4E2A-899B-E109996D1FC5}">
-  <dimension ref="B2:N24"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O26"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,40 +720,84 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="M2" s="12" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="24"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
       <c r="B5" s="5"/>
       <c r="C5" s="11" t="s">
         <v>3</v>
@@ -666,6 +806,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="5"/>
       <c r="J5" s="11" t="s">
         <v>8</v>
@@ -676,14 +817,17 @@
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6" t="s">
         <v>9</v>
@@ -694,68 +838,80 @@
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="7"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="7"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="6"/>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="5"/>
       <c r="J10" s="11" t="s">
         <v>14</v>
@@ -766,14 +922,17 @@
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="5"/>
       <c r="J11" s="6" t="s">
         <v>15</v>
@@ -784,114 +943,284 @@
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="12" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="12" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="6"/>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="6"/>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="14" t="s">
         <v>28</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="5"/>
       <c r="J15" s="11"/>
       <c r="K15" s="6"/>
       <c r="L15" s="11"/>
       <c r="M15" s="6"/>
       <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="10"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="20"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="20"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="20"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="12"/>
-    </row>
+      <c r="C24" s="24"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="20"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="20"/>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B24:C24"/>
